--- a/izejvielas_materiali.xlsx
+++ b/izejvielas_materiali.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aivit\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F462B9D-7997-4CA5-8627-FAA3C3C2CFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215591A5-C302-4068-A033-661171700C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="552" yWindow="528" windowWidth="18804" windowHeight="10956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2028" yWindow="1668" windowWidth="18804" windowHeight="10956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapa3" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -240,13 +241,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -565,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16ABD11-4A93-422C-A047-697C2E30BD04}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="66" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,42 +595,42 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1069,4 +1070,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73377E9-1C3B-460B-A4EF-A6203F2B1BF9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>